--- a/Project - Traffic_Light/De10_traffic_light.xlsx
+++ b/Project - Traffic_Light/De10_traffic_light.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\18.1\Digital-Clock\Project - Traffic_Light\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2951684-7B9A-466C-95AB-38EEA1FFE27F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775C739-8898-4185-899B-A65D579D237C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{ADDA0664-ED08-4A9D-B789-B5FF705889C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{ADDA0664-ED08-4A9D-B789-B5FF705889C0}"/>
   </bookViews>
   <sheets>
     <sheet name="switch" sheetId="1" r:id="rId1"/>
+    <sheet name="Block diagram" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,6 +64,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1937,6 +1944,6400 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>573726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464423</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>156795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D70A65-144B-46BE-B85C-0AC377F7FA76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="573726" y="2732686"/>
+          <a:ext cx="2315242" cy="1615109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>500MHz Clock</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42182</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>459775</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>51707</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9AE8E4-7345-49C7-BB78-69AB84F7D2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9329057" y="17072882"/>
+          <a:ext cx="1655843" cy="2790825"/>
+          <a:chOff x="4867275" y="4581525"/>
+          <a:chExt cx="1634072" cy="2790825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD33C35F-5DF9-4EF1-8CA3-886A6B2F0AA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4867275" y="4581525"/>
+            <a:ext cx="1634072" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" altLang="zh-CN" sz="2800" baseline="0"/>
+              <a:t>Traffic light B state</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Isosceles Triangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697F725-D88E-4B19-BE8C-64AE2AF6F102}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4908394" y="6626382"/>
+            <a:ext cx="574988" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127014</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>544607</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106507</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4372D061-CF5B-44D2-A2F8-8D22EEB73486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9413889" y="2649682"/>
+          <a:ext cx="1655843" cy="2790825"/>
+          <a:chOff x="4831497" y="866775"/>
+          <a:chExt cx="1634072" cy="2790825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38D485D-7B80-48C0-A60A-B8256C91EC70}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4831497" y="866775"/>
+            <a:ext cx="1634072" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" altLang="zh-CN" sz="2800" baseline="0"/>
+              <a:t>Traffic light A state</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Isosceles Triangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01C8CE2-0DFB-4F2F-A4D8-D12079CB9CAF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4872616" y="2816382"/>
+            <a:ext cx="574988" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>597354</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>69396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>402626</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB00F382-30A3-4D24-95A2-149162B9A4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9265104" y="20643396"/>
+          <a:ext cx="1662647" cy="2790825"/>
+          <a:chOff x="4867275" y="4581525"/>
+          <a:chExt cx="1634072" cy="2790825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F113CE-20A6-4011-9CAF-DF94B94F45C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4867275" y="4581525"/>
+            <a:ext cx="1634072" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" altLang="zh-CN" sz="2800" baseline="0"/>
+              <a:t>Traffic light B controller</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Isosceles Triangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF143EF-B127-4C23-A8F8-BB70116223AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4908394" y="6626382"/>
+            <a:ext cx="574988" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>75431</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>94755</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBA20C1-FB4C-4268-8213-41A425CB4211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9362306" y="6257430"/>
+          <a:ext cx="1655844" cy="2790825"/>
+          <a:chOff x="4831497" y="866775"/>
+          <a:chExt cx="1634072" cy="2790825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3021201-E79A-4722-845F-DBA85BE0D1A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4831497" y="866775"/>
+            <a:ext cx="1634072" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" altLang="zh-CN" sz="2800" baseline="0"/>
+              <a:t>Traffic light A controller</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Isosceles Triangle 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CDC02B-A941-4240-9C82-A1A893763165}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="4872616" y="2816382"/>
+            <a:ext cx="574988" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>249876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127015</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311CD961-2462-4F17-87D1-11ED7967F9BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2674421" y="3403902"/>
+          <a:ext cx="2301685" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>169719</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>136320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101286</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142147</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6576DEA1-25B3-47BA-AE24-8D399DE9B652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3200401" y="6994320"/>
+          <a:ext cx="1749976" cy="5827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>54031</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>46649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F82F954-2654-40EF-8D8D-BCFE0B1270F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3184071" y="10899322"/>
+          <a:ext cx="1768531" cy="5827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598317</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>155506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489DADAB-104D-4442-9A8A-364705807F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3116036" y="14437179"/>
+          <a:ext cx="1768531" cy="5827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889B3386-03D7-4205-8838-0006D7FCE37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3153146" y="3377045"/>
+          <a:ext cx="0" cy="12420848"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496833</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BB215C-299F-440B-ABE1-BCDF5271E448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="216849"/>
+          <a:ext cx="2315242" cy="1012742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>SlideSwitch</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>92672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>226867</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355B278F-D1A0-49A7-AC44-87D4A070DB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14374091" y="4474172"/>
+          <a:ext cx="4643003" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>traffic_light_A_second_display</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>237691</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48070</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1AD657-9FDA-4F98-8B27-6AFC256DD8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13577455" y="5001070"/>
+          <a:ext cx="7268872" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>175779</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>562840</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C7CF03-1B54-46F0-A565-4B76ACAA0C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20784415" y="381000"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>/10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>223404</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>4329</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0669C007-9F2E-4A6E-B097-042FA27F3713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20832040" y="3733800"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>%10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>134218</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>527465</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A7CF6D-47B3-46E6-B853-7B5D5B0A188D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26198082" y="387804"/>
+          <a:ext cx="1605519" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t> segment </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>S2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>177762</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>571009</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>55110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B161E9D9-8B49-41A0-A324-FA9558159B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26241626" y="3741285"/>
+          <a:ext cx="1605519" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>7 segment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>S1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>562840</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>134218</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68717</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connector: Elbow 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BDDE164-E4EE-42B4-B58C-8B2254666745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22383749" y="1776413"/>
+          <a:ext cx="3814333" cy="6804"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>4329</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>177762</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>183698</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connector: Elbow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26EF8F8-E360-4771-A7A1-C239CF6F66F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22431374" y="5129213"/>
+          <a:ext cx="3810252" cy="7485"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>242456</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54552</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3210790" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C047E37F-579B-4FC6-A115-81BB5A0048C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22669501" y="1197552"/>
+          <a:ext cx="3210790" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>traffic_light_A_InSecHi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>54553</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3245425" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93144606-E28C-4A97-BFAF-BACC70901A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22634864" y="4626553"/>
+          <a:ext cx="3245425" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>traffic_light_A_InSecLo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>582241</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>15038</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>43748</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB95D99-65E5-41C1-9E19-BECC90FF42F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18766332" y="1776865"/>
+          <a:ext cx="38933" cy="3219883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>510452</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>213879</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C7C0C1-200C-4E05-8100-E88846375E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18694543" y="1794176"/>
+          <a:ext cx="2127972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>502228</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>309994</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>66693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E53D7C-E58D-4F08-8106-7C6E0BBB719C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14443364" y="12402435"/>
+          <a:ext cx="4656857" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>traffic_light_B_second_display</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>165833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>320818</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>165833</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9179FF42-A28E-4455-B22E-B3C4651AC72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13490864" y="12929333"/>
+          <a:ext cx="7438590" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>258906</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>39831</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>51088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81013A2-D738-4F95-881C-41CE66741623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20867542" y="8309263"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>/10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>306531</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>87456</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>165388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82FA087-EE5F-4B4C-A148-56837DB82294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20915167" y="11662063"/>
+          <a:ext cx="1599334" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>%10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>217345</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>124567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>4455</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>57892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5DDE9D-8EB7-4DC3-A8E9-906DCD598F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26281209" y="8316067"/>
+          <a:ext cx="1605519" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t> segment </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+            <a:t>S2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>260889</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>49048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>47999</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>172873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA9E490-EAF6-4451-8AD8-D52E88392435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26324753" y="11669548"/>
+          <a:ext cx="1605519" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>7 segment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2800"/>
+            <a:t>S1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>39831</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>179676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>217345</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>186480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connector: Elbow 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B8B2CC-41C5-49A2-B62B-74A73E285259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22466876" y="9704676"/>
+          <a:ext cx="3814333" cy="6804"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>87456</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>103476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>260889</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>110961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Connector: Elbow 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCEBD72-F4CC-404B-ADE0-EF72292DAC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22514501" y="13057476"/>
+          <a:ext cx="3810252" cy="7485"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>59232</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>180128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>98165</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161511</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFF958B-4B1D-4BB9-B3C5-D2AE7FA25BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18849459" y="9705128"/>
+          <a:ext cx="38933" cy="3219883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>593579</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>6939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>297006</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>6939</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8DECDC-021B-4F7B-8DB0-610FFABBA424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18777670" y="9722439"/>
+          <a:ext cx="2127972" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3210790" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337F32F1-C794-4520-9FAA-FC738A04E11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22911955" y="9195955"/>
+          <a:ext cx="3210790" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>traffic_light_B_InSecHi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3245425" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684D1F1E-9635-4AD9-950A-63EF22E3894A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22842682" y="12538364"/>
+          <a:ext cx="3245425" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400"/>
+            <a:t>traffic_light_B_InSecLo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>108364</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="グループ化 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B99B133-3D43-4F47-84DC-7CB0A32E416E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22067693" y="5125728"/>
+          <a:ext cx="2013239" cy="4507636"/>
+          <a:chOff x="13616980" y="1802130"/>
+          <a:chExt cx="1059180" cy="2446020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="台形 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB231E93-05B9-4C58-98FA-FE4C6A1E0864}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="12925425" y="2699385"/>
+            <a:ext cx="2446020" cy="651510"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 39244"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="テキスト ボックス 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79109A2E-4D04-4BD2-B6F6-4933B40FE598}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13616980" y="2106083"/>
+            <a:ext cx="1059180" cy="1773814"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Src</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> selector</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2in</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1out</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>360220</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>13401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>516084</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>139537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FD3A2C-7823-44A3-B002-3F328AB51C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22029595" y="19063401"/>
+          <a:ext cx="2013239" cy="4507636"/>
+          <a:chOff x="13616980" y="1802130"/>
+          <a:chExt cx="1059180" cy="2446020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="台形 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7820507-0711-4C5D-A452-77C76A94BEFA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="12925425" y="2699385"/>
+            <a:ext cx="2446020" cy="651510"/>
+          </a:xfrm>
+          <a:prstGeom prst="trapezoid">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 39244"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="テキスト ボックス 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD5BD28-A45F-4CCF-A333-16CB49FE5B33}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13616980" y="2106083"/>
+            <a:ext cx="1059180" cy="1773814"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Src</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> selector</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>2in</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1out</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>148084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>86592</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>148084</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE4F07C-025F-4A25-844C-48F0C35D05A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2234045" y="719584"/>
+          <a:ext cx="26947092" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>66798</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>66798</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E8F325-A10F-411D-8255-B3967D7C0204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12795662" y="737260"/>
+          <a:ext cx="0" cy="1912422"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>64949</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>64949</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0508A8F5-6B03-4369-821B-E040B08B9FE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19257824" y="727364"/>
+          <a:ext cx="0" cy="17248909"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>40711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>31174</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>40711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D15E29B-DB05-4A5A-AE24-EFFC53912C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19264312" y="17947711"/>
+          <a:ext cx="3674487" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46016</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46016</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>31173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12092CE0-3CDC-4C96-BFA2-A5D056B30396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12774880" y="9369136"/>
+          <a:ext cx="0" cy="1330037"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>75347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>75347</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F243C5-549A-4019-9457-5718F532D586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11031682" y="3504347"/>
+          <a:ext cx="1243447" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>117764</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rectangle 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7220AF66-3E18-4F70-AE05-88545DD088AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22236546" y="3030682"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>135084</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812CDBBB-BFC4-47CC-A233-ADD2FE970DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23137091" y="11591938"/>
+          <a:ext cx="1243448" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>398319</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>100446</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>31173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectangle 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320B3268-24F5-44B1-99C8-37AB425AB55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22219228" y="11118273"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>19929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>131620</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>19929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42ED211-BEAD-4FB1-94CB-3B3B10E7765D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6494318" y="13735929"/>
+          <a:ext cx="17882757" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>498763</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>189647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>197429</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>189647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B9AC12-A849-4237-BD5F-74960FBF80F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6560127" y="5904647"/>
+          <a:ext cx="17882757" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>417366</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51B84B8-417B-4417-AAD2-26B4ACFD12AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21076227" y="6494318"/>
+          <a:ext cx="3586594" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>traffic_light_A_second</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>465857</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>112567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA85A84-0D15-4644-98E6-00BE643A38C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21124718" y="14353309"/>
+          <a:ext cx="3586594" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>traffic_light_B_second</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>537509</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>172539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>312372</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>121871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571DA78C-498D-4594-82A4-A5FA98654C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="9005456" y="15465137"/>
+          <a:ext cx="2235332" cy="987136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23588</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28891</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFFE4AF-72CB-4A20-9E20-BD69DDC33229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9721770" y="14859000"/>
+          <a:ext cx="5303" cy="438602"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>187245</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>187245</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Connector 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263E26A5-49D0-480A-93B7-77D9E761F9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9940845" y="14839950"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>425370</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>425370</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Connector 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C178C0-CC4F-43CA-BD6B-81BA6B310CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10178970" y="14859000"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53895</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53895</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Connector 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D30100-FA55-40A0-85AC-313C8EDCC54D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10417095" y="14897100"/>
+          <a:ext cx="0" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206295</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>206295</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650A0398-E401-4A75-AC9C-F7F94B53A413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569495" y="14906625"/>
+          <a:ext cx="0" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122957</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>116031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="TextBox 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55FE81C-C2A0-4416-83F9-E9463B6C515C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8659090" y="14356773"/>
+          <a:ext cx="3586594" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>traffic_light_B_second[6:0]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>444334</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>444334</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30E4326-FE0D-403B-85AC-D550A876EBC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10142516" y="16712045"/>
+          <a:ext cx="0" cy="1330037"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>109984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>109984</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01852747-63BE-4532-BFC5-55B4A13B3C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10113818" y="18016984"/>
+          <a:ext cx="3065318" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>423552</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>423552</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Straight Connector 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582A5DD6-7D22-491D-958B-77C854EB2513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13152416" y="8503227"/>
+          <a:ext cx="0" cy="9518073"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>141157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>141157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Connector 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF08B22E-6ED2-4ECE-9117-B055F6AB95F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4191000" y="8523157"/>
+          <a:ext cx="8967355" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="Straight Connector 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85AAD884-1459-403F-8CEF-E7014DF01E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4225637" y="8503227"/>
+          <a:ext cx="0" cy="1853046"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>2612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31173</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>2612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729A73B8-0C2F-422C-9669-7B903A6CFFCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4208318" y="10289612"/>
+          <a:ext cx="671946" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>17963</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>189858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>398962</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C8D38E-4C41-484F-BB98-919B401E6944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="9092047" y="7671956"/>
+          <a:ext cx="2235332" cy="987136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>530925</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Straight Connector 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BFB29F-7EC8-4CBF-A4B0-7B33FF478308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229107" y="8918864"/>
+          <a:ext cx="0" cy="1330037"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127303</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Connector 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A198579-C52B-4C67-99C6-C9D84B070BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10200409" y="10223803"/>
+          <a:ext cx="3065318" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>510143</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>510143</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>131619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9076ABAD-B877-4122-A2AB-03952686D294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239007" y="1991591"/>
+          <a:ext cx="0" cy="9760528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>516082</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37247</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Connector 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8EFBA0-514D-4A6F-AD5C-E4BBB9CC5CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4277591" y="1942247"/>
+          <a:ext cx="8967355" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Connector 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7419EE4B-6222-4CDF-AEC3-8E26F0965556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312228" y="1974273"/>
+          <a:ext cx="0" cy="2112819"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>117764</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Straight Connector 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC550CB3-E2AC-40A5-99C1-CB05ACBA80D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8537863" y="4020431"/>
+          <a:ext cx="671946" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104694</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DF90C5-6FFD-4EA7-A349-084A2A18CB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="8599833"/>
+          <a:ext cx="5303" cy="438602"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>263048</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>263048</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>113058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56233C04-6EEC-4AB0-A32C-7D88EA0920B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10069657" y="8580783"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>501173</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>501173</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>132108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Straight Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0268DB0-675D-40A0-9F2A-95B9FDDD90DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10307782" y="8599833"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>129698</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>65433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>129698</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84483</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Connector 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC47A3DB-DDEB-402A-AB1D-6D11B3A37701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10549220" y="8637933"/>
+          <a:ext cx="0" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>282098</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>74958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>282098</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>84483</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Straight Connector 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A0F1CA-E21C-4CE2-8E24-5BA68D3E94FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10701620" y="8647458"/>
+          <a:ext cx="0" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>40885</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="TextBox 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE26C242-5DAB-417A-8DC0-D469F5BFF09D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8671892" y="8058978"/>
+          <a:ext cx="3627254" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>traffic_light_A_second[6:0]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>521488</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504947</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Rectangle 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB22CA9C-F51F-4DA1-95CF-A84096577FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3583095" y="3360963"/>
+          <a:ext cx="595781" cy="587829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>432495</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1ED5F6-2F98-4F09-ABAB-FB8CF6D6B076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3510643" y="17117786"/>
+          <a:ext cx="595781" cy="587829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>554183</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>554183</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Straight Connector 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAA4810-3A4D-447D-BD5C-70DAC00AF9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7221683" y="18426545"/>
+          <a:ext cx="0" cy="1853046"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>158476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>516082</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>158476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Straight Connector 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45CD588-F5F4-483D-819F-C56941CD5DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6511636" y="18446476"/>
+          <a:ext cx="671946" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>51103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581891</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>51103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Straight Connector 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E299D439-1689-40AB-AA49-E7B440BD2B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4433455" y="20244103"/>
+          <a:ext cx="2815936" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Straight Connector 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C151BDE9-8593-4F3B-B67C-D3DB2FABC0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4468092" y="20227637"/>
+          <a:ext cx="0" cy="900545"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585354</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="Straight Connector 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969E26A6-9074-4023-A30E-57AB6D9C1F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4450773" y="21058909"/>
+          <a:ext cx="377536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="Straight Connector 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE26264-CE78-4FCF-B911-1B04AAB88502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7290955" y="4173682"/>
+          <a:ext cx="0" cy="1853046"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>519544</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>585354</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Connector 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3236CD8F-4528-4350-9014-DD4041B3C4F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6580908" y="4193613"/>
+          <a:ext cx="671946" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45027</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="Straight Connector 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74E2E75-4E00-478E-901B-CBA58E0A288A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4502727" y="5991240"/>
+          <a:ext cx="2815936" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Straight Connector 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC25335-B8A1-42F6-9C2F-C628EAFA8DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4537364" y="5974774"/>
+          <a:ext cx="0" cy="900545"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48490</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Straight Connector 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292C8F22-E4DA-46D7-9E85-DD07F48F1F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4520045" y="6806046"/>
+          <a:ext cx="377536" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="Straight Connector 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAA70C7-432B-42DC-9DAD-3531A36AA6F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4052455" y="692728"/>
+          <a:ext cx="0" cy="21076227"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>377536</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>179257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>179257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="Straight Connector 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57854FC-490B-4840-868E-4D9898AFB167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4014354" y="7799257"/>
+          <a:ext cx="5146964" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585355</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="Straight Connector 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D18EE4-F72E-4BAA-A97E-9EA5EE2904AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4035136" y="21736930"/>
+          <a:ext cx="5036128" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157594</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="TextBox 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DADD05-1949-4F14-A24B-26251D757678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8312727" y="7325591"/>
+          <a:ext cx="936912" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>i_en</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71003</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>167986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="TextBox 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77EFBDF-BDE7-48D5-8313-ABE27CCF66AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8226136" y="21266728"/>
+          <a:ext cx="936912" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>i_en</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>13856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84857</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="TextBox 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5082A2A7-E911-46B4-8867-F0BB813F7EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10664536" y="17920856"/>
+          <a:ext cx="936912" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>State</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330776</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>46758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="TextBox 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBB7BF8-BEA4-4AC9-8391-43E5D16AAE15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10910455" y="3619500"/>
+          <a:ext cx="936912" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>State</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="Straight Connector 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC28563-694B-4675-8100-C786F0E5BAE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10806545" y="6754091"/>
+          <a:ext cx="1125682" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>105639</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="TextBox 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1828B57-2449-4337-9406-928248DC749B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11897591" y="6494318"/>
+          <a:ext cx="936912" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>Led</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="Straight Connector 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D65A237-656A-40FC-BF92-58562ABD050A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10737272" y="21249409"/>
+          <a:ext cx="1125682" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36366</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>81394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="TextBox 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28F81E8-AF3A-4400-9CE2-79C2F0ACE53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11828318" y="20989636"/>
+          <a:ext cx="936912" cy="618258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>Led</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2236,7 +8637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D6AAAC-1EDE-4FE1-B14A-75B961987E14}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
@@ -2245,4 +8646,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F40F4F-5827-4FEF-8A85-502955750AA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK80" sqref="AK80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>